--- a/po forecast comparison/B08JHDL4WP_sales_po_comparison.xlsx
+++ b/po forecast comparison/B08JHDL4WP_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,304 +453,512 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>44921</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>44935</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44991</v>
+        <v>44997</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44998</v>
+        <v>45004</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45033</v>
+        <v>45039</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>45040</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>45053</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>45060</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>45054</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>45067</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45068</v>
+        <v>45074</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45075</v>
+        <v>45081</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>45299</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>45355</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="n">
         <v>45362</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
+        <v>45529</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>45523</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>45558</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="n">
         <v>45565</v>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45572</v>
+        <v>45578</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45579</v>
+        <v>45585</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45593</v>
+        <v>45599</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45606</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="n">
         <v>45600</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45607</v>
+        <v>45613</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
+        <v>45620</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="n">
         <v>45614</v>
       </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B08JHDL4WP_sales_po_comparison.xlsx
+++ b/po forecast comparison/B08JHDL4WP_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,390 +453,304 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44927</v>
+        <v>44927.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44941</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44997</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>44991</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45004</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>44998</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45039</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45046</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45053</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45060</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45067</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45074</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45081</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45075</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45305</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45361</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45368</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45375</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45382</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B08JHDL4WP_sales_po_comparison.xlsx
+++ b/po forecast comparison/B08JHDL4WP_sales_po_comparison.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Sales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daily PO" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merged (Optional)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Volume Insights" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Prediction" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +452,6 @@
           <t>y</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PO_Requested_Qty</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -464,9 +460,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -475,9 +468,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -486,9 +476,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -497,9 +484,6 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -508,9 +492,6 @@
       <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -519,9 +500,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -530,9 +508,6 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -541,9 +516,6 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -552,9 +524,6 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -563,9 +532,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -574,9 +540,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -585,9 +548,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -596,9 +556,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -607,9 +564,6 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -618,9 +572,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -629,9 +580,6 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -640,9 +588,6 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -651,9 +596,6 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -662,9 +604,6 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -673,9 +612,6 @@
       <c r="B21" t="n">
         <v>2</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -684,9 +620,6 @@
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -695,9 +628,6 @@
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -706,9 +636,6 @@
       <c r="B24" t="n">
         <v>3</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -717,9 +644,6 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -728,9 +652,6 @@
       <c r="B26" t="n">
         <v>1</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -739,9 +660,6 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -749,9 +667,6 @@
       </c>
       <c r="B28" t="n">
         <v>1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,17 +691,162 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ds</t>
+          <t>PO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PO_Requested_Qty</t>
+          <t>Vendor code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Growth%</t>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Product name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>External ID type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>External ID</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Model number</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Merchant SKU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Catalog number</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Availability</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Daily_PO_Qty</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Accepted quantity</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ASN quantity</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Received quantity</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Cancelled quantity</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Remaining quantity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Ship-to location</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Window start</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Window end</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Case size</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Total requested cost</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Total accepted cost</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Total received cost</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Total cancelled cost</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Expected date</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Freight terms</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation ID</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Cancellation deadline</t>
         </is>
       </c>
     </row>
@@ -796,6 +856,339 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Daily_PO_Qty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44927.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -850,7 +1243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -867,7 +1260,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Predicted_Next_Week_PO_Quantity</t>
+          <t>Predicted_Next_Daily_PO_Quantity</t>
         </is>
       </c>
     </row>
